--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3033942.459471898</v>
+        <v>3138122.093922969</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283176</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,10 +667,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.496370728247662</v>
       </c>
       <c r="F2" t="n">
-        <v>390.2324939239771</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.817218682477</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>153.0797231015015</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>89.94014789614013</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>4.792004777350316</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>56.93571561939848</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>2.650150584779454</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>101.8596809734276</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>368.6641381259086</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>370.021588090944</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292592</v>
@@ -1187,16 +1189,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>83.8913792416848</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1342,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>218.5495062926538</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722639</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695516</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>103.1686991936227</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>70.30034983101321</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695516</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>20.88994825141938</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>247.0683171605426</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>281.3232600304357</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695516</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>59.00369384633281</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272881</v>
+        <v>146.185049953102</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>57.28101103997492</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>121.0056618329838</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>134.0367616438392</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>36.86080948088116</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2965,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>60.86846495359922</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,16 +3009,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.623597659135302</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>64.40601307691422</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>253.1377431559585</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,10 +3432,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>118.4312223122543</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>115.2707447515123</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.6356839950556</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3712,22 +3714,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>150.672680124696</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3791,10 +3793,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>76.28317487965494</v>
+        <v>32.57570591153918</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4144,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>99.43007309478926</v>
       </c>
       <c r="V46" t="n">
-        <v>60.25690685266593</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1942.567517572959</v>
+        <v>1561.90077266991</v>
       </c>
       <c r="C2" t="n">
-        <v>1573.605000632547</v>
+        <v>1192.938255729498</v>
       </c>
       <c r="D2" t="n">
-        <v>1215.339302025797</v>
+        <v>834.672557122748</v>
       </c>
       <c r="E2" t="n">
-        <v>1215.339302025797</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,10 +4327,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4340,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883006</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>3072.075344883006</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W2" t="n">
-        <v>2719.306689612892</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X2" t="n">
-        <v>2719.306689612892</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y2" t="n">
-        <v>2329.16735763708</v>
+        <v>1561.90077266991</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686066</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2767.564758417647</v>
+        <v>3053.108722540404</v>
       </c>
       <c r="C4" t="n">
-        <v>2767.564758417647</v>
+        <v>2884.172539612498</v>
       </c>
       <c r="D4" t="n">
-        <v>2617.448119005311</v>
+        <v>2884.172539612498</v>
       </c>
       <c r="E4" t="n">
-        <v>2617.448119005311</v>
+        <v>2736.259446030104</v>
       </c>
       <c r="F4" t="n">
-        <v>2617.448119005311</v>
+        <v>2736.259446030104</v>
       </c>
       <c r="G4" t="n">
-        <v>2617.448119005311</v>
+        <v>2568.556609404823</v>
       </c>
       <c r="H4" t="n">
-        <v>2471.230932223169</v>
+        <v>2568.556609404823</v>
       </c>
       <c r="I4" t="n">
         <v>2471.230932223169</v>
@@ -4489,19 +4491,19 @@
         <v>2483.053685760608</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.364540028279</v>
+        <v>2581.364540028278</v>
       </c>
       <c r="L4" t="n">
         <v>2737.074383950636</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249834</v>
+        <v>2904.506865249833</v>
       </c>
       <c r="N4" t="n">
         <v>3075.815702279681</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.734051497871</v>
+        <v>3213.73405149787</v>
       </c>
       <c r="P4" t="n">
         <v>3312.685054250629</v>
@@ -4516,22 +4518,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T4" t="n">
-        <v>3103.839206178696</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U4" t="n">
-        <v>2949.213223247887</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V4" t="n">
-        <v>2949.213223247887</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W4" t="n">
-        <v>2949.213223247887</v>
+        <v>3234.757187370644</v>
       </c>
       <c r="X4" t="n">
-        <v>2949.213223247887</v>
+        <v>3234.757187370644</v>
       </c>
       <c r="Y4" t="n">
-        <v>2949.213223247887</v>
+        <v>3234.757187370644</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943748</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C5" t="n">
-        <v>939.4077790033361</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>939.4077790033361</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>219.3056756271247</v>
+        <v>381.6654861422326</v>
       </c>
       <c r="C7" t="n">
-        <v>219.3056756271247</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="D7" t="n">
-        <v>69.18903621478893</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E7" t="n">
-        <v>69.18903621478893</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F7" t="n">
-        <v>69.18903621478893</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>69.18903621478893</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>69.18903621478893</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450112</v>
+        <v>817.9984391783591</v>
       </c>
       <c r="T7" t="n">
-        <v>729.2011216450112</v>
+        <v>817.9984391783591</v>
       </c>
       <c r="U7" t="n">
-        <v>440.0982547706548</v>
+        <v>817.9984391783591</v>
       </c>
       <c r="V7" t="n">
-        <v>440.0982547706548</v>
+        <v>563.3139509724723</v>
       </c>
       <c r="W7" t="n">
-        <v>440.0982547706548</v>
+        <v>563.3139509724723</v>
       </c>
       <c r="X7" t="n">
-        <v>440.0982547706548</v>
+        <v>563.3139509724723</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.3056756271247</v>
+        <v>563.3139509724723</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1175.30093260579</v>
+        <v>1648.004869410821</v>
       </c>
       <c r="C8" t="n">
-        <v>1175.30093260579</v>
+        <v>1279.042352470409</v>
       </c>
       <c r="D8" t="n">
-        <v>1175.30093260579</v>
+        <v>1279.042352470409</v>
       </c>
       <c r="E8" t="n">
-        <v>789.5126800075454</v>
+        <v>893.2540998721647</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>482.2681950825572</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,10 +4822,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645723</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.900772669911</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4880,22 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>320.1870662708831</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C10" t="n">
-        <v>151.2508833429762</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4990,22 +4992,22 @@
         <v>831.0565485757135</v>
       </c>
       <c r="T10" t="n">
-        <v>609.2899331452395</v>
+        <v>610.2994715124267</v>
       </c>
       <c r="U10" t="n">
-        <v>320.1870662708831</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V10" t="n">
-        <v>320.1870662708831</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="W10" t="n">
-        <v>320.1870662708831</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X10" t="n">
-        <v>320.1870662708831</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y10" t="n">
-        <v>320.1870662708831</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="11">
@@ -5015,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5069,22 +5071,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273903</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L12" t="n">
-        <v>95.58405025273903</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M12" t="n">
-        <v>692.9625378792909</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>1320.560501433898</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O12" t="n">
-        <v>1872.470231673185</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2296.093381168253</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400744</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121676</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121676</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458821</v>
+        <v>620.6249953635651</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>473.7350478656547</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>306.5389485805346</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>164.8271174227327</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648822</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611861</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138439</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.502065570314</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,40 +5290,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>562.8579153358619</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797186</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745237</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400744</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121676</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D16" t="n">
-        <v>323.8164599824511</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000581</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000581</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000581</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854708</v>
+        <v>1727.897123782688</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648822</v>
+        <v>1473.212635576801</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611861</v>
+        <v>1183.79546553984</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138439</v>
+        <v>1183.79546553984</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.502065570314</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,19 +5503,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5525,28 +5527,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>429.5088224239596</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M18" t="n">
-        <v>1026.887310050512</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>1654.485273605118</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O18" t="n">
-        <v>2206.395003844405</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>700.7543264856222</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856222</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D19" t="n">
-        <v>550.6376870732865</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908935</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908935</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057736</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1149.536456527169</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>921.5469056291522</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>700.7543264856222</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,64 +5740,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096659</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3233.200736907822</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.60104615395</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741615</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159222</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661312</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376192</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V22" t="n">
-        <v>3932.255922673039</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>3642.838752636078</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>3414.849201738061</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>3414.849201738061</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5977,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797091</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6008,16 +6010,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466572</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784055</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504987</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381631</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557701</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578599</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578599</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1630.526246743623</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1341.109076706662</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1113.119525808645</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808645</v>
+        <v>794.0667034684034</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6215,61 +6217,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921482</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3192.420589669522</v>
+        <v>1092.345997432835</v>
       </c>
       <c r="C28" t="n">
-        <v>3023.484406741615</v>
+        <v>923.4098145049279</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741615</v>
+        <v>773.2931750925922</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159222</v>
+        <v>625.380081510199</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661312</v>
+        <v>478.4901340122886</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376192</v>
+        <v>311.2940347271686</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673936</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>4366.952842784157</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V28" t="n">
-        <v>4112.26835457827</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W28" t="n">
-        <v>3822.85118454131</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="X28" t="n">
-        <v>3594.861633643292</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y28" t="n">
-        <v>3374.069054499762</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,40 +6475,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>2854.44064873475</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>2854.44064873475</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>3482.038612289356</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>4033.948342528643</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>3262.308695856984</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>3093.372512929077</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>2943.255873516742</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>2795.342779934349</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>2648.452832436438</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>2481.256733151318</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>4471.231687421534</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>4182.156460765732</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>4182.156460765732</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>3892.739290728771</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>3664.749739830754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>3443.957160687224</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1655.562009178173</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
-        <v>2283.159972732779</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3240.397708662309</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="C34" t="n">
-        <v>3071.461525734402</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>2921.344886322066</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>2773.431792739673</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>2626.541845241763</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>3932.255922673039</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>3642.838752636078</v>
+        <v>1245.052379339893</v>
       </c>
       <c r="X34" t="n">
-        <v>3642.838752636078</v>
+        <v>1017.062828441876</v>
       </c>
       <c r="Y34" t="n">
-        <v>3422.046173492548</v>
+        <v>796.270249298346</v>
       </c>
     </row>
     <row r="35">
@@ -6929,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2515.675093211831</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>923.4916164683283</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C37" t="n">
-        <v>754.5554335404214</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D37" t="n">
-        <v>604.4387941280856</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E37" t="n">
-        <v>604.4387941280856</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611858</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683283</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="38">
@@ -7163,16 +7165,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7360,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.369871369643</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>1205.369871369643</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7433,25 +7435,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.07903472198</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2253.988764961267</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>924.6979859831846</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>1106.346450813424</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7688,7 +7690,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1877.026663243044</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
   </sheetData>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>43.26526345294634</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856539</v>
+        <v>10.96548648755233</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>127.7255247667928</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>39.11615722870155</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>43.26526345294951</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>5.199738306155098</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>108.2431272522949</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>71.22040037418631</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>194.8566322838529</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>97.57899151911101</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>6.257951202384646</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,19 +24651,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>249.323664908363</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>79.42624789262464</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.9610556929595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>101.1181252153546</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>33.3852551806325</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>26.98982571067691</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>171.2522535850787</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.19629618688168</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25600,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>135.850318211895</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>90.9636462189729</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26032,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
       <c r="V46" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>720891.9298890511</v>
+        <v>720891.9298890509</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>720891.9298890511</v>
+        <v>720891.929889051</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>720891.929889051</v>
+        <v>720891.9298890511</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>720891.929889051</v>
+        <v>720891.9298890511</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312481</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
-      <c r="D2" t="n">
-        <v>718411.5486312477</v>
-      </c>
       <c r="E2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="I2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287552</v>
       </c>
-      <c r="J2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287556</v>
-      </c>
       <c r="L2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="N2" t="n">
+        <v>706253.2747287558</v>
+      </c>
+      <c r="O2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>706253.2747287552</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287554</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26368,16 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687981</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687981</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687978</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687979</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687966</v>
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811863.88176179</v>
+        <v>-811863.8817617907</v>
       </c>
       <c r="C6" t="n">
         <v>516880.8639658021</v>
@@ -26528,40 +26530,40 @@
         <v>516880.8639658019</v>
       </c>
       <c r="E6" t="n">
-        <v>264281.6430906134</v>
+        <v>264281.6430906138</v>
       </c>
       <c r="F6" t="n">
-        <v>589694.1048979684</v>
+        <v>589694.1048979685</v>
       </c>
       <c r="G6" t="n">
+        <v>589694.1048979687</v>
+      </c>
+      <c r="H6" t="n">
+        <v>589694.1048979687</v>
+      </c>
+      <c r="I6" t="n">
+        <v>589694.1048979687</v>
+      </c>
+      <c r="J6" t="n">
+        <v>372162.9025006912</v>
+      </c>
+      <c r="K6" t="n">
         <v>589694.1048979685</v>
       </c>
-      <c r="H6" t="n">
-        <v>589694.1048979686</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
+        <v>589694.1048979687</v>
+      </c>
+      <c r="M6" t="n">
+        <v>504639.076962457</v>
+      </c>
+      <c r="N6" t="n">
+        <v>589694.1048979692</v>
+      </c>
+      <c r="O6" t="n">
+        <v>589694.1048979687</v>
+      </c>
+      <c r="P6" t="n">
         <v>589694.1048979685</v>
-      </c>
-      <c r="J6" t="n">
-        <v>372162.9025006911</v>
-      </c>
-      <c r="K6" t="n">
-        <v>589694.1048979688</v>
-      </c>
-      <c r="L6" t="n">
-        <v>589694.1048979688</v>
-      </c>
-      <c r="M6" t="n">
-        <v>504639.0769624569</v>
-      </c>
-      <c r="N6" t="n">
-        <v>589694.1048979685</v>
-      </c>
-      <c r="O6" t="n">
-        <v>589694.1048979688</v>
-      </c>
-      <c r="P6" t="n">
-        <v>589694.1048979686</v>
       </c>
     </row>
   </sheetData>
@@ -26787,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26822,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26963,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,10 +27387,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>375.4339993440141</v>
       </c>
       <c r="F2" t="n">
-        <v>16.64355181773431</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,16 +27590,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>133.1321151041113</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>196.5828504404509</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>377.1383652949115</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>312.7953850590706</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>93.70226982505864</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27824,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>87.90934435801431</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>38.21190761580289</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>40.90013756250943</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>64.72409377652755</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28062,13 +28064,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.9994429835153653</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31601,7 +31603,7 @@
         <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026431</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353158</v>
@@ -31616,7 +31618,7 @@
         <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970241</v>
       </c>
       <c r="P9" t="n">
         <v>447.6103584002928</v>
@@ -31835,16 +31837,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>419.3361492447676</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,13 +31855,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>362.5355639238086</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159419</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139906</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P18" t="n">
-        <v>447.1326187913569</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>220.7280629601522</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>663.4727207607267</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190033</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>151.9914336104071</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33052,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,13 +33253,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,34 +33268,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>614.7544723218302</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33420,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>622.4211036182646</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>163.4402738502014</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>177.7456072667729</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33910,7 +33912,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33968,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,22 +33979,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>231.5286848890172</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,25 +34216,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>265.5442652399247</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>200.4500263280935</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,22 +34444,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>536.3866168795495</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,7 +34468,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597635</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609568</v>
@@ -35264,7 +35266,7 @@
         <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525797</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859626</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>281.4947102704086</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,13 +35503,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>222.5537898377871</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819351</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.6208179396316</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P18" t="n">
-        <v>313.1582113770266</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>82.88662398579325</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>520.8764763162823</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745589</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>71.39556506237828</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36916,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>476.200092541956</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>483.8667238383904</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>37.7638331807514</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37558,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>92.97430510914305</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>134.2025531565914</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>66.47561891376326</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>405.0449047962162</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,7 +38116,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3138122.093922969</v>
+        <v>3134109.483908977</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.496370728247662</v>
+        <v>224.3935191073112</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -712,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>89.94014789614013</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>318.4070179429954</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>56.93571561939848</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>101.8596809734276</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>370.021588090944</v>
+        <v>336.4751824506157</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>52.531577549701</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>218.5495062926538</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>70.30034983101321</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>105.11626575513</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>247.0683171605426</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1855,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>123.9815576456783</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>146.185049953102</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>121.0056618329838</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.0367616438392</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>274.1357181000192</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>60.86846495359922</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>253.1377431559585</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>115.2707447515123</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>81.88270281562022</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>150.672680124696</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>32.57570591153918</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>119.6760079449695</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>99.43007309478926</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1561.90077266991</v>
+        <v>1458.811090838974</v>
       </c>
       <c r="C2" t="n">
-        <v>1192.938255729498</v>
+        <v>1458.811090838974</v>
       </c>
       <c r="D2" t="n">
-        <v>834.672557122748</v>
+        <v>1458.811090838974</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4327,10 +4327,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4342,16 +4342,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176916</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906802</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.040104645722</v>
+        <v>2235.550262878907</v>
       </c>
       <c r="Y2" t="n">
-        <v>1561.90077266991</v>
+        <v>1845.410930903096</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3053.108722540404</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>2884.172539612498</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>2884.172539612498</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>2736.259446030104</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>2736.259446030104</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>2568.556609404823</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>2568.556609404823</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.364540028278</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249833</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.73405149787</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>3234.757187370644</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>3234.757187370644</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>3234.757187370644</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.546535481797</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363905</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678289</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649823</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="W5" t="n">
-        <v>2435.796531379709</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="X5" t="n">
-        <v>2378.28570752173</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y5" t="n">
-        <v>1988.146375545919</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>381.6654861422326</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>212.7293032143257</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143257</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143257</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143257</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>817.9984391783591</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>817.9984391783591</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>817.9984391783591</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>563.3139509724723</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>563.3139509724723</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>563.3139509724723</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>563.3139509724723</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1648.004869410821</v>
+        <v>2269.96891018625</v>
       </c>
       <c r="C8" t="n">
-        <v>1279.042352470409</v>
+        <v>1901.006393245838</v>
       </c>
       <c r="D8" t="n">
-        <v>1279.042352470409</v>
+        <v>1542.740694639088</v>
       </c>
       <c r="E8" t="n">
-        <v>893.2540998721647</v>
+        <v>1156.952442040844</v>
       </c>
       <c r="F8" t="n">
-        <v>482.2681950825572</v>
+        <v>745.9665372512361</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2656.568750250372</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450754</v>
+        <v>2656.568750250372</v>
       </c>
       <c r="Y8" t="n">
-        <v>2034.604709474942</v>
+        <v>2656.568750250372</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218343</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>267.487409559729</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>119.5743159773359</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757135</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757135</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T10" t="n">
-        <v>610.2994715124267</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="U10" t="n">
-        <v>321.1966046380703</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="V10" t="n">
-        <v>66.51211643218343</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="W10" t="n">
-        <v>66.51211643218343</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="X10" t="n">
-        <v>66.51211643218343</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218343</v>
+        <v>417.6040489720648</v>
       </c>
     </row>
     <row r="11">
@@ -5029,49 +5029,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>372.4964262156764</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>867.8220324314351</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>2092.798483612594</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459582</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C13" t="n">
-        <v>768.5380889459582</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>768.5380889459582</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>620.6249953635651</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>473.7350478656547</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>306.5389485805346</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>164.8271174227327</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5238,13 +5238,13 @@
         <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761979</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,28 +5290,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K15" t="n">
-        <v>562.8579153358619</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L15" t="n">
-        <v>1058.183521551621</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M15" t="n">
-        <v>1655.562009178173</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N15" t="n">
-        <v>2283.159972732779</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1727.897123782688</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1473.212635576801</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1183.79546553984</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,37 +5746,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5788,10 +5788,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>612.4182386381636</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>794.0667034684034</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.345997432835</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>923.4098145049279</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>773.2931750925922</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>625.380081510199</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>478.4901340122886</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>311.2940347271686</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510509</v>
+        <v>1700.556314752913</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304622</v>
+        <v>1445.871826547026</v>
       </c>
       <c r="W28" t="n">
-        <v>1722.776592304622</v>
+        <v>1156.454656510065</v>
       </c>
       <c r="X28" t="n">
-        <v>1494.787041406604</v>
+        <v>928.4651056120481</v>
       </c>
       <c r="Y28" t="n">
-        <v>1273.994462263074</v>
+        <v>707.672526468518</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,40 +6475,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3262.308695856984</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3093.372512929077</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D31" t="n">
-        <v>2943.255873516742</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>2795.342779934349</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>2648.452832436438</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>2481.256733151318</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4471.231687421534</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4182.156460765732</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>4182.156460765732</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3892.739290728771</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3664.749739830754</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3443.957160687224</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1702.07903472198</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2253.988764961267</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>614.6217844681063</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>614.6217844681063</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>464.5051450557705</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1245.052379339893</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>1017.062828441876</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>796.270249298346</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6919,67 +6919,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.121104285317</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.131553387299</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.338974243769</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,19 +7162,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7259,19 +7259,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>1031.260321675049</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>862.3241387471426</v>
       </c>
       <c r="D40" t="n">
         <v>779.6143379232838</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1501.108204237296</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>1212.908786505289</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7490,16 +7490,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>962.6357307816187</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.284195611858</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>702.4944101284095</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>533.5582272005026</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>383.4415877881669</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1877.026663243044</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1622.342175037157</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1332.925005000197</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1104.935454102179</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>884.1428749586493</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>10.96548648755233</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>181.406732581461</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>39.11615722870155</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>43.26526345294951</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>71.22040037418631</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.57899151911101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>6.257951202384646</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>79.42624789262464</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>33.3852551806325</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>171.2522535850787</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>66.73277020259214</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>135.850318211895</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>20.61870490125435</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>186.7544012944549</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>720891.9298890509</v>
+        <v>720891.929889051</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>720891.9298890511</v>
+        <v>720891.929889051</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>720891.9298890511</v>
+        <v>720891.929889051</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312481</v>
       </c>
-      <c r="D2" t="n">
-        <v>718411.5486312479</v>
-      </c>
       <c r="E2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="F2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="G2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="M2" t="n">
         <v>706253.2747287552</v>
       </c>
-      <c r="L2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287557</v>
-      </c>
       <c r="N2" t="n">
-        <v>706253.2747287558</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>1.469155386075727e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>1.797263848857256e-10</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="E4" t="n">
+        <v>15436.64000687971</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15436.64000687972</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="H4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
+        <v>15436.64000687972</v>
+      </c>
+      <c r="K4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15436.64000687966</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687967</v>
@@ -26453,13 +26453,13 @@
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="O4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15436.64000687966</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811863.8817617907</v>
+        <v>-811863.8817617903</v>
       </c>
       <c r="C6" t="n">
         <v>516880.8639658021</v>
       </c>
       <c r="D6" t="n">
-        <v>516880.8639658019</v>
+        <v>516880.8639658024</v>
       </c>
       <c r="E6" t="n">
-        <v>264281.6430906138</v>
+        <v>263934.2638362562</v>
       </c>
       <c r="F6" t="n">
-        <v>589694.1048979685</v>
+        <v>589346.7256436116</v>
       </c>
       <c r="G6" t="n">
-        <v>589694.1048979687</v>
+        <v>589346.725643612</v>
       </c>
       <c r="H6" t="n">
-        <v>589694.1048979687</v>
+        <v>589346.725643612</v>
       </c>
       <c r="I6" t="n">
-        <v>589694.1048979687</v>
+        <v>589346.7256436119</v>
       </c>
       <c r="J6" t="n">
-        <v>372162.9025006912</v>
+        <v>371815.5232463343</v>
       </c>
       <c r="K6" t="n">
-        <v>589694.1048979685</v>
+        <v>589346.7256436117</v>
       </c>
       <c r="L6" t="n">
-        <v>589694.1048979687</v>
+        <v>589346.7256436116</v>
       </c>
       <c r="M6" t="n">
-        <v>504639.076962457</v>
+        <v>504291.6977080996</v>
       </c>
       <c r="N6" t="n">
-        <v>589694.1048979692</v>
+        <v>589346.7256436115</v>
       </c>
       <c r="O6" t="n">
-        <v>589694.1048979687</v>
+        <v>589346.7256436116</v>
       </c>
       <c r="P6" t="n">
-        <v>589694.1048979685</v>
+        <v>589346.7256436119</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>375.4339993440141</v>
+        <v>157.5368509649506</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>196.5828504404509</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>9.345240527139481</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>312.7953850590706</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27824,7 +27824,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>87.90934435801431</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>40.90013756250943</v>
+        <v>74.44654320283774</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28016,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>92.88947047323025</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9994429835153653</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970241</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>419.3361492447676</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200311</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4622569139906</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>186.6878763515707</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O18" t="n">
-        <v>463.4318227833011</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O21" t="n">
-        <v>663.4727207607267</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>687.0167715190033</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>151.9914336104071</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>399.4395445221152</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33420,34 +33420,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>163.4402738502014</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>244.0266243181827</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33979,7 +33979,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>231.5286848890172</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34210,19 +34210,19 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525797</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>281.4947102704086</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.6208179396316</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>44.0916319071262</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O18" t="n">
-        <v>320.8355783388566</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O21" t="n">
-        <v>520.8764763162823</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>544.4205270745589</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>20.64972152707382</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>29.46586643587111</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>101.8925903961643</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>92.97430510914305</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3134109.483908977</v>
+        <v>3135870.014211763</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8328603.389020026</v>
+        <v>8328603.389020027</v>
       </c>
     </row>
     <row r="11">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.08802744677259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>58.28185552386348</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>57.29212650174169</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -955,10 +955,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>318.4070179429954</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.08802744677259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>336.4751824506157</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>129.471426936784</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>54.45803047044427</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>52.531577549701</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881288</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>105.11626575513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>92.87435055577325</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1855,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569541</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>274.1357181000192</v>
+        <v>230.4433519268051</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>51.36569740310371</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>91.89996056624796</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="38">
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>81.88270281562022</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>119.6760079449695</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808249</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>130.5513683573773</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4330,7 +4330,7 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>272.2726250653094</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>125.382677567399</v>
       </c>
       <c r="G4" t="n">
         <v>66.5121164321834</v>
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2434.183678346854</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2434.183678346854</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X5" t="n">
-        <v>2434.183678346854</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2403.038273524209</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4770,7 +4770,7 @@
         <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181849</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2269.96891018625</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1901.006393245838</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1542.740694639088</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1156.952442040844</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>745.9665372512361</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520486</v>
+        <v>3084.535934008201</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520486</v>
+        <v>3084.535934008201</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520486</v>
+        <v>3084.535934008201</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250372</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="X8" t="n">
-        <v>2656.568750250372</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y8" t="n">
-        <v>2656.568750250372</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>417.6040489720648</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="C10" t="n">
-        <v>417.6040489720648</v>
+        <v>121.5202280184908</v>
       </c>
       <c r="D10" t="n">
-        <v>267.487409559729</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>119.5743159773359</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>417.6040489720648</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.6040489720648</v>
+        <v>472.1048757766374</v>
       </c>
     </row>
     <row r="11">
@@ -5029,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,25 +5053,25 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,28 +5290,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L15" t="n">
-        <v>590.9096564684977</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.28814409505</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1815.886107649656</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>416.6057892068305</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>269.7158417089202</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,34 +5764,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5843,16 +5843,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,10 +6001,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U28" t="n">
-        <v>1700.556314752913</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V28" t="n">
-        <v>1445.871826547026</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W28" t="n">
-        <v>1156.454656510065</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X28" t="n">
-        <v>928.4651056120481</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y28" t="n">
-        <v>707.672526468518</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,10 +6475,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238955</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7074,70 +7074,70 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
         <v>753.3092412490405</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,34 +7189,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1031.260321675049</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>862.3241387471426</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1433.701365648819</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1212.908786505289</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7499,7 +7499,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101285</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>296.7882229101285</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>296.7882229101285</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>449.485266605716</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>449.485266605716</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>449.485266605716</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
   </sheetData>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>181.406732581461</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>72.6497877364956</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>12.04875628922491</v>
+        <v>55.74112246243902</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>125.5054897610403</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="38">
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>66.73277020259214</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>20.61870490125435</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>191.8807364711616</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>34.97276993489157</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>720891.929889051</v>
+        <v>720891.9298890511</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>720891.929889051</v>
+        <v>720891.9298890511</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="G2" t="n">
         <v>706253.2747287557</v>
@@ -26334,28 +26334,28 @@
         <v>706253.2747287557</v>
       </c>
       <c r="I2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287558</v>
+      </c>
+      <c r="N2" t="n">
+        <v>706253.2747287559</v>
+      </c>
+      <c r="O2" t="n">
+        <v>706253.274728755</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287554</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687967</v>
@@ -26441,7 +26441,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
@@ -26450,7 +26450,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687967</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811863.8817617903</v>
+        <v>-811863.8817617904</v>
       </c>
       <c r="C6" t="n">
-        <v>516880.8639658021</v>
+        <v>516880.863965802</v>
       </c>
       <c r="D6" t="n">
-        <v>516880.8639658024</v>
+        <v>516880.863965802</v>
       </c>
       <c r="E6" t="n">
-        <v>263934.2638362562</v>
+        <v>264246.9051651778</v>
       </c>
       <c r="F6" t="n">
-        <v>589346.7256436116</v>
+        <v>589659.3669725331</v>
       </c>
       <c r="G6" t="n">
-        <v>589346.725643612</v>
+        <v>589659.3669725333</v>
       </c>
       <c r="H6" t="n">
-        <v>589346.725643612</v>
+        <v>589659.3669725333</v>
       </c>
       <c r="I6" t="n">
-        <v>589346.7256436119</v>
+        <v>589659.3669725333</v>
       </c>
       <c r="J6" t="n">
-        <v>371815.5232463343</v>
+        <v>372128.1645752552</v>
       </c>
       <c r="K6" t="n">
-        <v>589346.7256436117</v>
+        <v>589659.3669725332</v>
       </c>
       <c r="L6" t="n">
-        <v>589346.7256436116</v>
+        <v>589659.3669725331</v>
       </c>
       <c r="M6" t="n">
-        <v>504291.6977080996</v>
+        <v>504604.3390370215</v>
       </c>
       <c r="N6" t="n">
-        <v>589346.7256436115</v>
+        <v>589659.3669725335</v>
       </c>
       <c r="O6" t="n">
-        <v>589346.7256436116</v>
+        <v>589659.3669725326</v>
       </c>
       <c r="P6" t="n">
-        <v>589346.7256436119</v>
+        <v>589659.3669725329</v>
       </c>
     </row>
   </sheetData>
@@ -26792,22 +26792,22 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.7439527351647</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>107.7439527351648</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>325.4417151617389</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,10 +27675,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>9.345240527139481</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.7439527351647</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="8">
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>74.44654320283774</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>74.44654320283618</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>94.15744254776808</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>92.88947047323025</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200311</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32083,34 +32083,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>186.6878763515707</v>
+        <v>225.4828684302374</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>366.8427442359106</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>357.9244589488886</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34219,31 +34219,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366978</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>44.0916319071262</v>
+        <v>82.88662398579301</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>235.5010321525773</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>226.5827468655553</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
